--- a/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/JobOrderList.xlsx
+++ b/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/JobOrderList.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kasah\source\repos\his_vb\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KAOATO\source\repos\his_vb\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F449F019-0F44-4C2E-902C-0FC0DADF5223}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E26595CB-62ED-456B-A6CE-80C682B8DB93}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -97,19 +96,22 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00_ "/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -117,7 +119,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -163,7 +165,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -185,9 +187,21 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -498,29 +512,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20561863-5DDA-41FE-8A89-7415294960B9}">
-  <dimension ref="A1:K2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="J1" sqref="J1:L1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="10.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" customWidth="1"/>
     <col min="3" max="3" width="21" style="1" customWidth="1"/>
     <col min="4" max="5" width="13" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.25" style="2" customWidth="1"/>
-    <col min="8" max="8" width="8.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="2" customWidth="1"/>
     <col min="9" max="9" width="10" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.75" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="10" max="10" width="9.85546875" style="9" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" style="9" customWidth="1"/>
+    <col min="12" max="12" width="9" style="10"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" ht="12.75" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -539,7 +554,7 @@
       <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="6" t="s">
@@ -548,25 +563,25 @@
       <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="12.75" thickTop="1">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="G2" s="8"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
